--- a/data/trans_orig/Q5416-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5416-Provincia-trans_orig.xlsx
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6567</v>
+        <v>5696</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02979864508721598</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1674051916348316</v>
+        <v>0.145203797910413</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6193</v>
+        <v>5826</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01566718871139207</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08299057627666644</v>
+        <v>0.0780776467028747</v>
       </c>
     </row>
     <row r="6">
@@ -914,7 +914,7 @@
         <v>38062</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32664</v>
+        <v>33535</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>39231</v>
@@ -923,7 +923,7 @@
         <v>0.970201354912784</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8325948083651667</v>
+        <v>0.854796202089587</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -935,7 +935,7 @@
         <v>73448</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>68424</v>
+        <v>68791</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>74617</v>
@@ -944,7 +944,7 @@
         <v>0.9843328112886079</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9170094237233378</v>
+        <v>0.9219223532971297</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -1052,19 +1052,19 @@
         <v>4116</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1219</v>
+        <v>1044</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9764</v>
+        <v>9457</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04204959528498382</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01245430938635802</v>
+        <v>0.01066713989935435</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.099762760063068</v>
+        <v>0.09662282050731173</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -1073,19 +1073,19 @@
         <v>4116</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>920</v>
+        <v>1104</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9168</v>
+        <v>9737</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02501441296754514</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.005594530373591667</v>
+        <v>0.00671202427812371</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05572571710328912</v>
+        <v>0.05918359359856599</v>
       </c>
     </row>
     <row r="10">
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5890</v>
+        <v>5195</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0147925718409827</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08836926291721817</v>
+        <v>0.0779413633455103</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1123,19 +1123,19 @@
         <v>3075</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8956</v>
+        <v>8929</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03141378021332498</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008740747750182612</v>
+        <v>0.008666996716464421</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09150452637663954</v>
+        <v>0.09123209900304788</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1144,19 +1144,19 @@
         <v>4061</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>996</v>
+        <v>1009</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9407</v>
+        <v>10271</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02468017640477413</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006054653784279669</v>
+        <v>0.006133809557265848</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05717411639956117</v>
+        <v>0.06242668842301571</v>
       </c>
     </row>
     <row r="11">
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6683</v>
+        <v>5984</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01149258140362416</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06827989512056706</v>
+        <v>0.06113985385949176</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1</v>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>5600</v>
+        <v>6461</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.00683669308455973</v>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03403862299278525</v>
+        <v>0.03926857154786323</v>
       </c>
     </row>
     <row r="12">
@@ -1236,7 +1236,7 @@
         <v>65668</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>60764</v>
+        <v>61459</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>66654</v>
@@ -1245,7 +1245,7 @@
         <v>0.9852074281590173</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9116307370827791</v>
+        <v>0.9220586366544901</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
@@ -1257,19 +1257,19 @@
         <v>89560</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>82393</v>
+        <v>82243</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>93823</v>
+        <v>94026</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.915044043098067</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8418194042393669</v>
+        <v>0.8402809909729503</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9586033712758195</v>
+        <v>0.9606746389103348</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>152</v>
@@ -1278,19 +1278,19 @@
         <v>155228</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>147439</v>
+        <v>147450</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>159933</v>
+        <v>160206</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.943468717543121</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8961279235854184</v>
+        <v>0.8961931514000737</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9720683334290682</v>
+        <v>0.9737259046624849</v>
       </c>
     </row>
     <row r="13">
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>3.517171966334041e-06</v>
+        <v>3.956066544932365e-06</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>2.566705934061234e-06</v>
+        <v>2.158129722543071e-06</v>
       </c>
     </row>
     <row r="15">
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5089</v>
+        <v>5182</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01863722505053117</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09990336452825503</v>
+        <v>0.1017215873765512</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>4</v>
@@ -1466,19 +1466,19 @@
         <v>4542</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1153</v>
+        <v>1141</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>10851</v>
+        <v>10819</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05438375767800444</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01380686024024666</v>
+        <v>0.01366722083571227</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1299158517626597</v>
+        <v>0.1295347479432045</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>5</v>
@@ -1487,19 +1487,19 @@
         <v>5492</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2084</v>
+        <v>2059</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>11208</v>
+        <v>11035</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04084140031346704</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01549689081919472</v>
+        <v>0.01530974445114815</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0833547506065507</v>
+        <v>0.08207192353992143</v>
       </c>
     </row>
     <row r="16">
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5750</v>
+        <v>7658</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01389886757880043</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06884870791305046</v>
+        <v>0.09169410781089356</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6505</v>
+        <v>7499</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008633365783814094</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0483756692148792</v>
+        <v>0.05577375047521468</v>
       </c>
     </row>
     <row r="17">
@@ -1579,7 +1579,7 @@
         <v>49991</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>45851</v>
+        <v>45758</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>50940</v>
@@ -1588,7 +1588,7 @@
         <v>0.9813627749494689</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9000966354717408</v>
+        <v>0.8982784126234487</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1600,19 +1600,19 @@
         <v>77818</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>71092</v>
+        <v>70829</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>81245</v>
+        <v>81263</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9317167101832656</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8511841692985018</v>
+        <v>0.8480431693301701</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9727471911002916</v>
+        <v>0.9729692942845726</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>129</v>
@@ -1621,19 +1621,19 @@
         <v>127809</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>121095</v>
+        <v>121936</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>131294</v>
+        <v>132142</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9505248211072933</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9005984240792716</v>
+        <v>0.9068477002053179</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9764446337763227</v>
+        <v>0.9827520973133246</v>
       </c>
     </row>
     <row r="18">
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4532</v>
+        <v>4777</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01506936303083897</v>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08222656094675734</v>
+        <v>0.08666800521116751</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>3409</v>
+        <v>3366</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.006417520832617277</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02633408361886744</v>
+        <v>0.02600866008745214</v>
       </c>
     </row>
     <row r="20">
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7290</v>
+        <v>7392</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02882471097459838</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09809266672775591</v>
+        <v>0.09947209973333902</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7493</v>
+        <v>7470</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01654926291517512</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0578862883120459</v>
+        <v>0.05771382317087392</v>
       </c>
     </row>
     <row r="21">
@@ -1898,7 +1898,7 @@
         <v>54291</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>50590</v>
+        <v>50345</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>55122</v>
@@ -1907,7 +1907,7 @@
         <v>0.9849306369691611</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9177734390532447</v>
+        <v>0.9133319947888321</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -1919,7 +1919,7 @@
         <v>72171</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>67023</v>
+        <v>66921</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>74313</v>
@@ -1928,7 +1928,7 @@
         <v>0.9711752890254016</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9019073332722443</v>
+        <v>0.900527900266661</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -1940,19 +1940,19 @@
         <v>126463</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>121337</v>
+        <v>120449</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>128604</v>
+        <v>128603</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9770332162522076</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9374262316037628</v>
+        <v>0.9305718260160322</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9935709937057047</v>
+        <v>0.993563494509323</v>
       </c>
     </row>
     <row r="23">
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5282</v>
+        <v>4626</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02766554269098331</v>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1280623822853061</v>
+        <v>0.1121582546696013</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>5772</v>
+        <v>5264</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01616434424584546</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08175877413052045</v>
+        <v>0.07456716074730546</v>
       </c>
     </row>
     <row r="25">
@@ -2107,19 +2107,19 @@
         <v>2545</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>804</v>
+        <v>768</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6722</v>
+        <v>6587</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08672909000882184</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02741251405440386</v>
+        <v>0.02615589445601886</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2290642707370756</v>
+        <v>0.2244615159636477</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2128,19 +2128,19 @@
         <v>3205</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>0</v>
+        <v>899</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8144</v>
+        <v>7929</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07771025707853205</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0</v>
+        <v>0.02179034660309171</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1974380371631383</v>
+        <v>0.1922332039123466</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6</v>
@@ -2149,19 +2149,19 @@
         <v>5750</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2028</v>
+        <v>2407</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>11496</v>
+        <v>11924</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0814595920702007</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0287307906029392</v>
+        <v>0.03409409533281892</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1628520399030368</v>
+        <v>0.1689112204582464</v>
       </c>
     </row>
     <row r="26">
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4081</v>
+        <v>4557</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02957935006790525</v>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1390717536214151</v>
+        <v>0.1552940388705714</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4997</v>
+        <v>4483</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01229681191542491</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07077992484852511</v>
+        <v>0.06350330421188516</v>
       </c>
     </row>
     <row r="27">
@@ -2241,19 +2241,19 @@
         <v>25934</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>21741</v>
+        <v>21935</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>28482</v>
+        <v>28513</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.8836915599232729</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7408257624655993</v>
+        <v>0.7474222515748211</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9705091288019114</v>
+        <v>0.9715897660973787</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>35</v>
@@ -2262,19 +2262,19 @@
         <v>36900</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>31578</v>
+        <v>30696</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>40112</v>
+        <v>40098</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8946242002304846</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.7656095551427021</v>
+        <v>0.7442281645137536</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9725081034750598</v>
+        <v>0.9721703309257469</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>65</v>
@@ -2283,19 +2283,19 @@
         <v>62833</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>55886</v>
+        <v>56097</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>67040</v>
+        <v>66830</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.890079251768529</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.7916640490774227</v>
+        <v>0.7946560248344431</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9496711298732318</v>
+        <v>0.946696182752512</v>
       </c>
     </row>
     <row r="28">
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5096</v>
+        <v>5773</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02004568091358703</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1079652515002516</v>
+        <v>0.1223096858358159</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>4</v>
@@ -2455,19 +2455,19 @@
         <v>4640</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1229</v>
+        <v>1150</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>11335</v>
+        <v>10438</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0659947604080164</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01747771212132256</v>
+        <v>0.01635265029214225</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1612149938108962</v>
+        <v>0.1484637028294703</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>5</v>
@@ -2476,19 +2476,19 @@
         <v>5586</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1385</v>
+        <v>1934</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>11921</v>
+        <v>11250</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04753915574938085</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01178416562930265</v>
+        <v>0.01645931776037816</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1014478669877709</v>
+        <v>0.09573734678163924</v>
       </c>
     </row>
     <row r="31">
@@ -2552,7 +2552,7 @@
         <v>46250</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>42100</v>
+        <v>41423</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>47196</v>
@@ -2561,7 +2561,7 @@
         <v>0.979954319086413</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8920347484997476</v>
+        <v>0.8776903141641842</v>
       </c>
       <c r="I32" s="6" t="n">
         <v>1</v>
@@ -2573,19 +2573,19 @@
         <v>65669</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>58974</v>
+        <v>59871</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>69080</v>
+        <v>69159</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9340052395919836</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8387850061891036</v>
+        <v>0.8515362971705294</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9825222878786762</v>
+        <v>0.9836473497078577</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>111</v>
@@ -2594,19 +2594,19 @@
         <v>111920</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>105585</v>
+        <v>106256</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>116121</v>
+        <v>115572</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9524608442506192</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8985521330122287</v>
+        <v>0.9042626532183581</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9882158343706973</v>
+        <v>0.9835406822396218</v>
       </c>
     </row>
     <row r="33">
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4647</v>
+        <v>4960</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.007914843998951463</v>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04387212315636137</v>
+        <v>0.04682816184850948</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>3</v>
@@ -2719,19 +2719,19 @@
         <v>3057</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>8499</v>
+        <v>8264</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02609767862278903</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.007605394239817053</v>
+        <v>0.007650641621345376</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.07256913994955018</v>
+        <v>0.07055559199852526</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4</v>
@@ -2740,19 +2740,19 @@
         <v>3895</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1107</v>
+        <v>1049</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>9880</v>
+        <v>9182</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01746249529103619</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.004962468735239784</v>
+        <v>0.0047009375345222</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04429437525889548</v>
+        <v>0.04116589493013294</v>
       </c>
     </row>
     <row r="35">
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>4776</v>
+        <v>4853</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.008817767413698182</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04508762034562222</v>
+        <v>0.04581765545029386</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1</v>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>4566</v>
+        <v>4856</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.007654550601275437</v>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.0389879760625564</v>
+        <v>0.04146383011189451</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>2</v>
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>6213</v>
+        <v>6501</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.008206972192168595</v>
@@ -2823,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02785404203985356</v>
+        <v>0.02914491873796708</v>
       </c>
     </row>
     <row r="36">
@@ -2887,7 +2887,7 @@
         <v>104156</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>100117</v>
+        <v>100008</v>
       </c>
       <c r="F37" s="5" t="n">
         <v>105928</v>
@@ -2896,7 +2896,7 @@
         <v>0.9832673885873504</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9451449278592636</v>
+        <v>0.9441123300819393</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>1</v>
@@ -2908,19 +2908,19 @@
         <v>113168</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>107676</v>
+        <v>107421</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>116087</v>
+        <v>115981</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9662477707759355</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9193609936239684</v>
+        <v>0.9171756290473901</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9911712773850679</v>
+        <v>0.9902635146427615</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>219</v>
@@ -2929,19 +2929,19 @@
         <v>217323</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>211015</v>
+        <v>211089</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>220872</v>
+        <v>220908</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9743305325167952</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9460499091731738</v>
+        <v>0.9463810143696522</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9902400632952642</v>
+        <v>0.9904004379347302</v>
       </c>
     </row>
     <row r="38">
@@ -3036,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>5266</v>
+        <v>5241</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.009436974427654026</v>
@@ -3045,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.0470637887988337</v>
+        <v>0.04684211517563568</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>1</v>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>6122</v>
+        <v>6041</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.007840902575629707</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.03995128358615643</v>
+        <v>0.03942523182256259</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>2</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>6973</v>
+        <v>7678</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.008514522889113923</v>
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.02629987210669166</v>
+        <v>0.02896210986068731</v>
       </c>
     </row>
     <row r="40">
@@ -3104,19 +3104,19 @@
         <v>3959</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>981</v>
+        <v>965</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>9675</v>
+        <v>10830</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.03538542896169666</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.008768842295859652</v>
+        <v>0.008627483000610186</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.0864703537254541</v>
+        <v>0.09678538629209626</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>6771</v>
+        <v>7334</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.008614682549208613</v>
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.04419307419335205</v>
+        <v>0.04786656656715464</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>5</v>
@@ -3146,19 +3146,19 @@
         <v>5279</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1920</v>
+        <v>1886</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>11806</v>
+        <v>11289</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.0199132456857709</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.007241976269194144</v>
+        <v>0.00711500561972385</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.044531089323311</v>
+        <v>0.04257933094172782</v>
       </c>
     </row>
     <row r="41">
@@ -3188,19 +3188,19 @@
         <v>4425</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1194</v>
+        <v>1184</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>10835</v>
+        <v>10592</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02887702596732739</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.007790659045860109</v>
+        <v>0.007729274783180314</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.07071575520965818</v>
+        <v>0.06912890400803633</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>4</v>
@@ -3209,19 +3209,19 @@
         <v>4425</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1248</v>
+        <v>1074</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>10890</v>
+        <v>10781</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01668950993543226</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.004706794694587806</v>
+        <v>0.004051325401386028</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.04107672650185065</v>
+        <v>0.04066545228787223</v>
       </c>
     </row>
     <row r="42">
@@ -3238,19 +3238,19 @@
         <v>106878</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>100711</v>
+        <v>100880</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>110483</v>
+        <v>110796</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9551775966106493</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9000680207821175</v>
+        <v>0.9015797726754639</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9873950280489442</v>
+        <v>0.9901999939326734</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>138</v>
@@ -3259,19 +3259,19 @@
         <v>146279</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>139166</v>
+        <v>139136</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>150749</v>
+        <v>150231</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.9546673889078343</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.9082436108332089</v>
+        <v>0.9080519695995904</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.983839572572632</v>
+        <v>0.980463012910949</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>249</v>
@@ -3280,19 +3280,19 @@
         <v>253157</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>245061</v>
+        <v>244887</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>259193</v>
+        <v>258749</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9548827214896829</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9243459425372318</v>
+        <v>0.9236922211155815</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.977652861626876</v>
+        <v>0.9759752847575884</v>
       </c>
     </row>
     <row r="43">
@@ -3384,19 +3384,19 @@
         <v>2725</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>8305</v>
+        <v>7807</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.005423231450403397</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.001651773648251731</v>
+        <v>0.001653911351372261</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01652845331260172</v>
+        <v>0.01553805609177201</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>10</v>
@@ -3405,19 +3405,19 @@
         <v>9515</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>4425</v>
+        <v>4224</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>17438</v>
+        <v>16618</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01405759086535388</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.006538435118944621</v>
+        <v>0.006241288444503116</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.02576449668488715</v>
+        <v>0.02455176402357711</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>13</v>
@@ -3426,19 +3426,19 @@
         <v>12240</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>6288</v>
+        <v>6664</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>20357</v>
+        <v>21256</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01037876220271654</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.005331819862923793</v>
+        <v>0.005650489406097543</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01726190794735137</v>
+        <v>0.01802383740244934</v>
       </c>
     </row>
     <row r="45">
@@ -3455,19 +3455,19 @@
         <v>10320</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>5411</v>
+        <v>5588</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>18233</v>
+        <v>17689</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.02053892224611863</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.01076830536089562</v>
+        <v>0.01112206764877104</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.0362878151618421</v>
+        <v>0.03520346977328175</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>19</v>
@@ -3476,19 +3476,19 @@
         <v>20990</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>13127</v>
+        <v>13389</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>32618</v>
+        <v>32500</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.03101114599009216</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.01939510101666653</v>
+        <v>0.01978140652046007</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.0481912750018444</v>
+        <v>0.04801679622474531</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>30</v>
@@ -3497,19 +3497,19 @@
         <v>31310</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>21348</v>
+        <v>21365</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>43485</v>
+        <v>43343</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.02654926120867181</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.01810250745891718</v>
+        <v>0.01811673116701698</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.03687360627190934</v>
+        <v>0.03675316146789372</v>
       </c>
     </row>
     <row r="46">
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>5091</v>
+        <v>5206</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.001727608330200385</v>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01013154155697348</v>
+        <v>0.01036105827684657</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>6</v>
@@ -3547,19 +3547,19 @@
         <v>6710</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>2307</v>
+        <v>2275</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>13384</v>
+        <v>13626</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.009914246668302398</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.003407992724502157</v>
+        <v>0.003361791174098084</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01977441123014037</v>
+        <v>0.02013212813409061</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>7</v>
@@ -3568,19 +3568,19 @@
         <v>7578</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>3206</v>
+        <v>3336</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>15796</v>
+        <v>15425</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.006426177858390792</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.002718623066318874</v>
+        <v>0.002828585889706329</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01339416748707025</v>
+        <v>0.01308004344502954</v>
       </c>
     </row>
     <row r="47">
@@ -3597,19 +3597,19 @@
         <v>488553</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>480395</v>
+        <v>480006</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>494811</v>
+        <v>494104</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.9723102379732775</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.9560741785741805</v>
+        <v>0.9553000622351373</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.9847643567990241</v>
+        <v>0.9833579623796945</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>626</v>
@@ -3618,19 +3618,19 @@
         <v>639627</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>625608</v>
+        <v>626168</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>650796</v>
+        <v>649874</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.9450170164762516</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.9243041228355874</v>
+        <v>0.9251315332595478</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.9615186121712269</v>
+        <v>0.9601557178157208</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1134</v>
@@ -3639,19 +3639,19 @@
         <v>1128180</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1113069</v>
+        <v>1113102</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1141947</v>
+        <v>1140342</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.9566457987302208</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.9438320798155715</v>
+        <v>0.9438600219841264</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.9683197848506928</v>
+        <v>0.9669585564178931</v>
       </c>
     </row>
     <row r="48">
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6625</v>
+        <v>6706</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04446678996133766</v>
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1354937012593181</v>
+        <v>0.1371474937271119</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7854</v>
+        <v>7399</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02333423223944369</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08429427079893423</v>
+        <v>0.0794059884501466</v>
       </c>
     </row>
     <row r="5">
@@ -4063,19 +4063,19 @@
         <v>5323</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2062</v>
+        <v>2083</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11587</v>
+        <v>12141</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1088607860211038</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04217463076608986</v>
+        <v>0.04260207393222818</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2369871066776981</v>
+        <v>0.2483191909811406</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -4084,19 +4084,19 @@
         <v>5323</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2081</v>
+        <v>1988</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11602</v>
+        <v>10967</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05712539324276441</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02233897118264554</v>
+        <v>0.02133908350544394</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.124521724773416</v>
+        <v>0.1176986652264072</v>
       </c>
     </row>
     <row r="6">
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4967</v>
+        <v>4916</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02225763574311793</v>
@@ -4125,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1121647147678203</v>
+        <v>0.1110177278854294</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5734</v>
+        <v>4151</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01057779912836731</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06154085909507645</v>
+        <v>0.04454766732875652</v>
       </c>
     </row>
     <row r="7">
@@ -4176,7 +4176,7 @@
         <v>43295</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39314</v>
+        <v>39365</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>44281</v>
@@ -4185,7 +4185,7 @@
         <v>0.9777423642568821</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8878352852321798</v>
+        <v>0.8889822721145708</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -4197,19 +4197,19 @@
         <v>41397</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>34172</v>
+        <v>34737</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>45684</v>
+        <v>45651</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8466724240175585</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6989024083557331</v>
+        <v>0.7104479232932583</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9343452318779375</v>
+        <v>0.9336826607217646</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>79</v>
@@ -4218,19 +4218,19 @@
         <v>84693</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>77164</v>
+        <v>78502</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>89023</v>
+        <v>89079</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9089625753894246</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8281595041866588</v>
+        <v>0.8425171952490123</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9554398805097128</v>
+        <v>0.956044332830327</v>
       </c>
     </row>
     <row r="8">
@@ -4325,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7903</v>
+        <v>7748</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0268959715889703</v>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09978710606800741</v>
+        <v>0.09782543319586573</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -4343,19 +4343,19 @@
         <v>5575</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1352</v>
+        <v>1362</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13726</v>
+        <v>13932</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05461076008353304</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01323979731479186</v>
+        <v>0.01334361604295864</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1344448869244182</v>
+        <v>0.1364634174641819</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -4364,19 +4364,19 @@
         <v>7706</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3291</v>
+        <v>3240</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>16735</v>
+        <v>15213</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04250299733360315</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01815469953358081</v>
+        <v>0.0178692643478573</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09230694788590167</v>
+        <v>0.08391189349226919</v>
       </c>
     </row>
     <row r="10">
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5127</v>
+        <v>5457</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01340498445184084</v>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0647272333630297</v>
+        <v>0.06889992238663782</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6830</v>
+        <v>6709</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02171732794502083</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06690426487971689</v>
+        <v>0.0657105545133993</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -4435,19 +4435,19 @@
         <v>3279</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8954</v>
+        <v>9297</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01808591351329635</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005812202149174522</v>
+        <v>0.005834084031062294</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04938973181072975</v>
+        <v>0.05128279954077683</v>
       </c>
     </row>
     <row r="11">
@@ -4480,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8115</v>
+        <v>6862</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02211573102593355</v>
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07948660011347873</v>
+        <v>0.06720964734969438</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7845</v>
+        <v>6800</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01245402913866134</v>
@@ -4510,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04327175832828214</v>
+        <v>0.03750850581342106</v>
       </c>
     </row>
     <row r="12">
@@ -4527,7 +4527,7 @@
         <v>76011</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>70490</v>
+        <v>70895</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>78198</v>
@@ -4536,10 +4536,10 @@
         <v>0.9596990439591888</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8899971646226175</v>
+        <v>0.8951104703077523</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9873065977945955</v>
+        <v>0.9873085675692292</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>85</v>
@@ -4548,19 +4548,19 @@
         <v>92043</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>83755</v>
+        <v>83421</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>97425</v>
+        <v>96984</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9015561809455126</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8203832052307739</v>
+        <v>0.8171090367883493</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.954279545533578</v>
+        <v>0.9499545417680161</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>151</v>
@@ -4569,19 +4569,19 @@
         <v>168054</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>158291</v>
+        <v>159523</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>174599</v>
+        <v>174066</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9269570600144391</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8731061382218526</v>
+        <v>0.8799009845147108</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9630582898806394</v>
+        <v>0.9601231487501217</v>
       </c>
     </row>
     <row r="13">
@@ -4676,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6092</v>
+        <v>6569</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03579789470335264</v>
@@ -4685,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1092813195372144</v>
+        <v>0.1178460180128594</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -4694,19 +4694,19 @@
         <v>6557</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2243</v>
+        <v>2214</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13243</v>
+        <v>12267</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08199501576711242</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02804779057564359</v>
+        <v>0.02768181382431974</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1656055368217195</v>
+        <v>0.1533961154890042</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -4715,19 +4715,19 @@
         <v>8552</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4175</v>
+        <v>4166</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>16008</v>
+        <v>16146</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06301980509807599</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03076694724555337</v>
+        <v>0.03069602119898585</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1179584207266305</v>
+        <v>0.1189763183769094</v>
       </c>
     </row>
     <row r="15">
@@ -4744,19 +4744,19 @@
         <v>3068</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8242</v>
+        <v>8268</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05503591969084903</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01712869948728125</v>
+        <v>0.01708425655136727</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1478508427839652</v>
+        <v>0.1483340877012427</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>3</v>
@@ -4765,19 +4765,19 @@
         <v>3235</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1037</v>
+        <v>1056</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7687</v>
+        <v>8641</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04045397513321219</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01296511322870278</v>
+        <v>0.01320854216984783</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.09612160674807262</v>
+        <v>0.1080616457064749</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>6</v>
@@ -4786,19 +4786,19 @@
         <v>6303</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2146</v>
+        <v>2247</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>12992</v>
+        <v>12990</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04644342779982927</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01581444417717915</v>
+        <v>0.01655451673453815</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.09573444441390551</v>
+        <v>0.09572007492676614</v>
       </c>
     </row>
     <row r="16">
@@ -4862,19 +4862,19 @@
         <v>50679</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>45221</v>
+        <v>45123</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>53803</v>
+        <v>53807</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9091661856057983</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8112527774870421</v>
+        <v>0.8094933703478503</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9652146450610825</v>
+        <v>0.9652818210288778</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>66</v>
@@ -4883,19 +4883,19 @@
         <v>70176</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>62688</v>
+        <v>62808</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>75563</v>
+        <v>75411</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8775510090996754</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7839118429211764</v>
+        <v>0.7854109539789046</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9449114045800645</v>
+        <v>0.9430186368931859</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>114</v>
@@ -4904,19 +4904,19 @@
         <v>120855</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>111676</v>
+        <v>111879</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>127146</v>
+        <v>127025</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8905367671020947</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.822904607175777</v>
+        <v>0.824395138562906</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.936896458037768</v>
+        <v>0.9360035196385185</v>
       </c>
     </row>
     <row r="18">
@@ -5011,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5815</v>
+        <v>5463</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01823706784614753</v>
@@ -5020,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.090812958924848</v>
+        <v>0.08532430355826549</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5835</v>
+        <v>5262</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.007805224662630628</v>
@@ -5054,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03900263294015426</v>
+        <v>0.03517015179461965</v>
       </c>
     </row>
     <row r="20">
@@ -5074,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5849</v>
+        <v>5253</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01617740469398369</v>
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09134777600933509</v>
+        <v>0.08204688929218885</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -5092,19 +5092,19 @@
         <v>3177</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9424</v>
+        <v>8488</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03712169543338445</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01178302122076219</v>
+        <v>0.01167397219694971</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1101268338832694</v>
+        <v>0.09919143039747766</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -5113,19 +5113,19 @@
         <v>4212</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1049</v>
+        <v>1038</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9911</v>
+        <v>10497</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02815781505526707</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.007010451327088523</v>
+        <v>0.006940917633278527</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06625153341020923</v>
+        <v>0.07016559743357562</v>
       </c>
     </row>
     <row r="21">
@@ -5189,7 +5189,7 @@
         <v>61825</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>56976</v>
+        <v>56559</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>64028</v>
@@ -5198,7 +5198,7 @@
         <v>0.9655855274598688</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8898565243921208</v>
+        <v>0.8833524718604228</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -5210,19 +5210,19 @@
         <v>82397</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>76150</v>
+        <v>77086</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>84566</v>
+        <v>84575</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9628783045666156</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8898731661167306</v>
+        <v>0.9008085696025222</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9882169787792378</v>
+        <v>0.9883260278030503</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>135</v>
@@ -5231,19 +5231,19 @@
         <v>144222</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>138458</v>
+        <v>137621</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>147525</v>
+        <v>147545</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9640369602821023</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9255113205348156</v>
+        <v>0.919911934234348</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9861180023107369</v>
+        <v>0.9862511148138436</v>
       </c>
     </row>
     <row r="23">
@@ -5348,19 +5348,19 @@
         <v>3096</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8279</v>
+        <v>8239</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0621038707608517</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0196071210154299</v>
+        <v>0.01950152142933645</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1660544632066637</v>
+        <v>0.1652586017183575</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -5369,19 +5369,19 @@
         <v>3096</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>9709</v>
+        <v>8453</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03800527717187511</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01215452428035149</v>
+        <v>0.01209563478613845</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.119178584493654</v>
+        <v>0.1037644490442967</v>
       </c>
     </row>
     <row r="25">
@@ -5401,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5634</v>
+        <v>4832</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03658695443468548</v>
@@ -5410,7 +5410,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1782146403147828</v>
+        <v>0.1528587838780087</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4936</v>
+        <v>5824</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0198952693737407</v>
@@ -5431,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09901445805424357</v>
+        <v>0.116821098374558</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2</v>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>7020</v>
+        <v>7792</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02637225912769438</v>
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08616998426736162</v>
+        <v>0.09564293984633387</v>
       </c>
     </row>
     <row r="26">
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7606</v>
+        <v>4904</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03481480277839448</v>
@@ -5481,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2405989109158778</v>
+        <v>0.1551175797519506</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5520</v>
+        <v>5750</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01350942820082275</v>
@@ -5515,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06775669394207673</v>
+        <v>0.07057910317638795</v>
       </c>
     </row>
     <row r="27">
@@ -5532,7 +5532,7 @@
         <v>29355</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>24533</v>
+        <v>24622</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>31612</v>
@@ -5541,7 +5541,7 @@
         <v>0.92859824278692</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7760614909910524</v>
+        <v>0.778867187771471</v>
       </c>
       <c r="I27" s="6" t="n">
         <v>1</v>
@@ -5553,19 +5553,19 @@
         <v>45767</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>40528</v>
+        <v>40640</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>48847</v>
+        <v>48838</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9180008598654076</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8129155174475162</v>
+        <v>0.8151714229047166</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.979773403306522</v>
+        <v>0.9796103551157175</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>70</v>
@@ -5574,19 +5574,19 @@
         <v>75122</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>68568</v>
+        <v>68559</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>79243</v>
+        <v>79292</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9221130354996078</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8416619608443927</v>
+        <v>0.8415533912991091</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9726984610753785</v>
+        <v>0.9733012646192616</v>
       </c>
     </row>
     <row r="28">
@@ -5681,7 +5681,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5331</v>
+        <v>5287</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02041989866142973</v>
@@ -5690,7 +5690,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1029967102865826</v>
+        <v>0.1021620168367442</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -5699,19 +5699,19 @@
         <v>3243</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1061</v>
+        <v>1050</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>8594</v>
+        <v>8632</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04619111604277585</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01510450179486464</v>
+        <v>0.0149579246544149</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1223993721835304</v>
+        <v>0.1229402808969897</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -5720,19 +5720,19 @@
         <v>4300</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1064</v>
+        <v>1090</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>9756</v>
+        <v>10230</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03525529666489777</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.008719715334813432</v>
+        <v>0.008933314302648238</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07999196699507904</v>
+        <v>0.08387059894948827</v>
       </c>
     </row>
     <row r="30">
@@ -5752,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5351</v>
+        <v>4488</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02077201012331892</v>
@@ -5761,7 +5761,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1033801202189283</v>
+        <v>0.0867051582336774</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>4</v>
@@ -5770,19 +5770,19 @@
         <v>4176</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>9572</v>
+        <v>9445</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.05947926602483047</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01509747996281505</v>
+        <v>0.01501807227483784</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1363287942621156</v>
+        <v>0.134524827244582</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>5</v>
@@ -5791,19 +5791,19 @@
         <v>5251</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>11525</v>
+        <v>11659</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04305413744481128</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01676789343677371</v>
+        <v>0.0166987729816004</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.09449138034827351</v>
+        <v>0.09558743185823255</v>
       </c>
     </row>
     <row r="31">
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>4580</v>
+        <v>5462</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01566076169114763</v>
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06522846530210426</v>
+        <v>0.07779419268081222</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1</v>
@@ -5857,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>5496</v>
+        <v>5481</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.009015237009867049</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04506355748995618</v>
+        <v>0.04493511825178925</v>
       </c>
     </row>
     <row r="32">
@@ -5883,7 +5883,7 @@
         <v>49624</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>44304</v>
+        <v>44435</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>51756</v>
@@ -5892,7 +5892,7 @@
         <v>0.9588080912152513</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.856023147735169</v>
+        <v>0.8585492191087492</v>
       </c>
       <c r="I32" s="6" t="n">
         <v>1</v>
@@ -5904,19 +5904,19 @@
         <v>61693</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>55351</v>
+        <v>54510</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>65985</v>
+        <v>65961</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.878668856241246</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7883431657405267</v>
+        <v>0.7763634451132951</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9397989159024998</v>
+        <v>0.9394507541007338</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>109</v>
@@ -5925,19 +5925,19 @@
         <v>111317</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>103003</v>
+        <v>103866</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>116662</v>
+        <v>116582</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9126753288804239</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8445083953737244</v>
+        <v>0.8515861285405998</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9565000146991559</v>
+        <v>0.9558410520710088</v>
       </c>
     </row>
     <row r="33">
@@ -6032,7 +6032,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>7503</v>
+        <v>6377</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0177193549087776</v>
@@ -6041,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.06683414313453549</v>
+        <v>0.05680767175284299</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2</v>
@@ -6053,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>7408</v>
+        <v>6196</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01426788094361966</v>
@@ -6062,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.05218029487924597</v>
+        <v>0.04364230505767763</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4</v>
@@ -6071,19 +6071,19 @@
         <v>4015</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>983</v>
+        <v>1036</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>9220</v>
+        <v>10778</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01579201356046163</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.003865924811730186</v>
+        <v>0.004073805041135382</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03626644407028198</v>
+        <v>0.04239729181976357</v>
       </c>
     </row>
     <row r="35">
@@ -6103,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>5106</v>
+        <v>5248</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.008958475318689537</v>
@@ -6112,7 +6112,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04548485522867817</v>
+        <v>0.04674417409533808</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>9</v>
@@ -6121,19 +6121,19 @@
         <v>9180</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>4134</v>
+        <v>4131</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>15845</v>
+        <v>15899</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.06466670078316382</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02912342970138166</v>
+        <v>0.0291015027301578</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1116171517081791</v>
+        <v>0.1119973012690735</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>10</v>
@@ -6142,19 +6142,19 @@
         <v>10186</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>5079</v>
+        <v>5171</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>17515</v>
+        <v>17933</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04006656637278991</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01997941458965076</v>
+        <v>0.02034048190552046</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.06889501108626508</v>
+        <v>0.07053942253861434</v>
       </c>
     </row>
     <row r="36">
@@ -6174,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>10927</v>
+        <v>10096</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02020915612421908</v>
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.09733801964086039</v>
+        <v>0.08992917465056419</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -6208,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>11313</v>
+        <v>11178</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0089241391703108</v>
@@ -6217,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04450154137928784</v>
+        <v>0.0439692132133247</v>
       </c>
     </row>
     <row r="37">
@@ -6234,19 +6234,19 @@
         <v>106999</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>98538</v>
+        <v>98313</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>110366</v>
+        <v>110293</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9531130136483138</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8777450870619339</v>
+        <v>0.8757404832914425</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9830984976005603</v>
+        <v>0.9824516703740711</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>118</v>
@@ -6255,19 +6255,19 @@
         <v>130756</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>123659</v>
+        <v>123499</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>136206</v>
+        <v>136113</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9210654182732165</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.871071291022638</v>
+        <v>0.8699418246162498</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9594558705833709</v>
+        <v>0.9588013658796309</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>214</v>
@@ -6276,19 +6276,19 @@
         <v>237757</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>228340</v>
+        <v>227374</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>244270</v>
+        <v>244856</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9352172808964376</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.8981756299029193</v>
+        <v>0.8943769917270012</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9608379309750972</v>
+        <v>0.9631447656321894</v>
       </c>
     </row>
     <row r="38">
@@ -6383,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>5273</v>
+        <v>6563</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.009096849647954645</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.04366814854087196</v>
+        <v>0.05435431737370543</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>4</v>
@@ -6401,19 +6401,19 @@
         <v>4478</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>1198</v>
+        <v>1111</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>10516</v>
+        <v>11110</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.0272361002610876</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.007284262843156925</v>
+        <v>0.006754263389941453</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.06395853553520564</v>
+        <v>0.0675702247373723</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>5</v>
@@ -6422,19 +6422,19 @@
         <v>5577</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>2165</v>
+        <v>2119</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>12285</v>
+        <v>12143</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.01955519771549167</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.007592878209114477</v>
+        <v>0.007430305310383528</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.04307836448828696</v>
+        <v>0.0425800996392986</v>
       </c>
     </row>
     <row r="40">
@@ -6451,19 +6451,19 @@
         <v>3352</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1063</v>
+        <v>1074</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>8993</v>
+        <v>9085</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.02775621766473337</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.008803891071442364</v>
+        <v>0.008894895951523773</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.07447591653159519</v>
+        <v>0.07523918765397576</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>6</v>
@@ -6472,19 +6472,19 @@
         <v>6743</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>2327</v>
+        <v>2348</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>14253</v>
+        <v>13670</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.04101034072663591</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01415267996600863</v>
+        <v>0.01427838035966387</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.0866907515532773</v>
+        <v>0.0831417315710662</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>9</v>
@@ -6493,19 +6493,19 @@
         <v>10094</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>5304</v>
+        <v>5266</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>17872</v>
+        <v>18244</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.03539800151058791</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01860007509776076</v>
+        <v>0.01846463570888952</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.06267211403719683</v>
+        <v>0.06397472541201893</v>
       </c>
     </row>
     <row r="41">
@@ -6538,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>5442</v>
+        <v>5438</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.006547603052814363</v>
@@ -6547,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.03310101529292862</v>
+        <v>0.03307322683021339</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1</v>
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>5355</v>
+        <v>4849</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.003775079422786226</v>
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01877909215957946</v>
+        <v>0.01700562553776331</v>
       </c>
     </row>
     <row r="42">
@@ -6585,19 +6585,19 @@
         <v>116302</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>110482</v>
+        <v>110291</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>119587</v>
+        <v>119651</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.963146932687312</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9149528450293896</v>
+        <v>0.9133667387838497</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9903509161933097</v>
+        <v>0.9908802950457721</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>140</v>
@@ -6606,19 +6606,19 @@
         <v>152120</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>144033</v>
+        <v>143671</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>157808</v>
+        <v>157896</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.9252059559594621</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.8760252768641958</v>
+        <v>0.8738182034351091</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9598043636177457</v>
+        <v>0.96033890880628</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>242</v>
@@ -6627,19 +6627,19 @@
         <v>268422</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>259111</v>
+        <v>258434</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>276147</v>
+        <v>275229</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9412717213511342</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.908622533621414</v>
+        <v>0.9062472923152392</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9683612164617627</v>
+        <v>0.9651430599911155</v>
       </c>
     </row>
     <row r="43">
@@ -6731,19 +6731,19 @@
         <v>9438</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>4164</v>
+        <v>4246</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>16958</v>
+        <v>16783</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01686434591151883</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.007440668696890777</v>
+        <v>0.007586826872500979</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.03030255896771269</v>
+        <v>0.0299885743079904</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>24</v>
@@ -6752,19 +6752,19 @@
         <v>27149</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>17659</v>
+        <v>17831</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>39318</v>
+        <v>39001</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.03654150202624327</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.02376802672008446</v>
+        <v>0.02399991546109171</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.05291918776905287</v>
+        <v>0.05249255970745519</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>33</v>
@@ -6773,19 +6773,19 @@
         <v>36587</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>25309</v>
+        <v>26025</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>49577</v>
+        <v>50740</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.02808766846861817</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.01942980709948958</v>
+        <v>0.019978977508999</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.0380595735124719</v>
+        <v>0.03895244681448091</v>
       </c>
     </row>
     <row r="45">
@@ -6802,19 +6802,19 @@
         <v>11754</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>6271</v>
+        <v>6177</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>20335</v>
+        <v>20907</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.021003505972266</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.011205574473993</v>
+        <v>0.0110377207871944</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.03633655674823139</v>
+        <v>0.03735811367514637</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>33</v>
@@ -6823,19 +6823,19 @@
         <v>35043</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>25061</v>
+        <v>25773</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>48400</v>
+        <v>49933</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.04716519857150796</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.03373088605228434</v>
+        <v>0.03468832410280975</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.06514355640099333</v>
+        <v>0.06720725094738483</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>44</v>
@@ -6844,19 +6844,19 @@
         <v>46797</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>33534</v>
+        <v>35247</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>62101</v>
+        <v>62008</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.03592543437335512</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.02574352825219412</v>
+        <v>0.02705894556804748</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.04767413287760065</v>
+        <v>0.04760296694404033</v>
       </c>
     </row>
     <row r="46">
@@ -6873,19 +6873,19 @@
         <v>4355</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>989</v>
+        <v>997</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>12864</v>
+        <v>12403</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.00778165683923973</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.001767437477742475</v>
+        <v>0.001780695665416695</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.02298559051079924</v>
+        <v>0.02216225037875066</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>4</v>
@@ -6894,19 +6894,19 @@
         <v>4434</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>1106</v>
+        <v>1112</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>11006</v>
+        <v>11144</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.005967852906922946</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.001488682764819322</v>
+        <v>0.001496055134276591</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01481373762935628</v>
+        <v>0.01499962157760356</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>7</v>
@@ -6915,19 +6915,19 @@
         <v>8789</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>3357</v>
+        <v>3359</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>18711</v>
+        <v>18815</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.006747111680933376</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.00257721176015713</v>
+        <v>0.002579033499403482</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01436423551218693</v>
+        <v>0.01444423982099349</v>
       </c>
     </row>
     <row r="47">
@@ -6944,19 +6944,19 @@
         <v>534090</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>521929</v>
+        <v>521963</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>542617</v>
+        <v>543602</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.9543504912769755</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.9326208634615605</v>
+        <v>0.9326813853553052</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.969588069844619</v>
+        <v>0.9713475713270376</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>633</v>
@@ -6965,19 +6965,19 @@
         <v>676349</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>658227</v>
+        <v>658248</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>691853</v>
+        <v>691399</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.9103254464953258</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.8859340869815965</v>
+        <v>0.8859628423250071</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.9311932409194732</v>
+        <v>0.9305823882340525</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1114</v>
@@ -6986,19 +6986,19 @@
         <v>1210439</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1189811</v>
+        <v>1191203</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1229332</v>
+        <v>1227944</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.9292397854770933</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.9134042295481093</v>
+        <v>0.9144728018248038</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.9437441791893264</v>
+        <v>0.942678232061446</v>
       </c>
     </row>
     <row r="48">
@@ -7337,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4253</v>
+        <v>4018</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02060718830642581</v>
@@ -7346,7 +7346,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1093323437741979</v>
+        <v>0.1032963828548583</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -7358,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6091</v>
+        <v>6639</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02279637912799238</v>
@@ -7367,7 +7367,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.123325309154178</v>
+        <v>0.1344162804455599</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -7379,7 +7379,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6156</v>
+        <v>6175</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02183190475464414</v>
@@ -7388,7 +7388,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06973251238863953</v>
+        <v>0.06994796954171691</v>
       </c>
     </row>
     <row r="5">
@@ -7408,7 +7408,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4914</v>
+        <v>4030</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0203487282912194</v>
@@ -7417,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1263255562536122</v>
+        <v>0.1036016743643801</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -7426,19 +7426,19 @@
         <v>3454</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1018</v>
+        <v>1028</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9082</v>
+        <v>9395</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06993311950697206</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02060431634365862</v>
+        <v>0.02081614857347889</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1838870493347716</v>
+        <v>0.1902076343560294</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -7447,19 +7447,19 @@
         <v>4246</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1044</v>
+        <v>1285</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9899</v>
+        <v>10780</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04808811898232839</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01182531441383824</v>
+        <v>0.01455754464307415</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1121178159542783</v>
+        <v>0.122096379006904</v>
       </c>
     </row>
     <row r="6">
@@ -7523,7 +7523,7 @@
         <v>37303</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32986</v>
+        <v>34010</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>38896</v>
@@ -7532,7 +7532,7 @@
         <v>0.9590440834023548</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8480670406417254</v>
+        <v>0.8743921181952842</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -7544,19 +7544,19 @@
         <v>44811</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>37954</v>
+        <v>37901</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48228</v>
+        <v>48237</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9072705013650355</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7684361451803607</v>
+        <v>0.7673703690099477</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9764505455788</v>
+        <v>0.9766356739415946</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>79</v>
@@ -7565,19 +7565,19 @@
         <v>82114</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>75722</v>
+        <v>75525</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>86074</v>
+        <v>85754</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9300799762630274</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8576750346359566</v>
+        <v>0.855451070956488</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9749386687698767</v>
+        <v>0.9713115317675161</v>
       </c>
     </row>
     <row r="8">
@@ -7685,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5971</v>
+        <v>6789</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01169017170263493</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05181958469769304</v>
+        <v>0.05891596731638929</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -7706,7 +7706,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8358</v>
+        <v>6743</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.006651277175602036</v>
@@ -7715,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04126977341059864</v>
+        <v>0.03329703282665852</v>
       </c>
     </row>
     <row r="10">
@@ -7732,19 +7732,19 @@
         <v>2923</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>873</v>
+        <v>859</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8015</v>
+        <v>7636</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03348985670456571</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01000451345241706</v>
+        <v>0.009841690387961816</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09181849285407369</v>
+        <v>0.08747891272673809</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -7753,19 +7753,19 @@
         <v>7796</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2711</v>
+        <v>2707</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14669</v>
+        <v>15320</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06765327284575712</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02352495394793382</v>
+        <v>0.02349235489441007</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1273040691994208</v>
+        <v>0.132950736802856</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -7774,19 +7774,19 @@
         <v>10719</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4908</v>
+        <v>5463</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19196</v>
+        <v>20691</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05292758232576283</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0242361435505646</v>
+        <v>0.02697519997407716</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09478443148959943</v>
+        <v>0.1021686161928299</v>
       </c>
     </row>
     <row r="11">
@@ -7850,19 +7850,19 @@
         <v>84372</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>79280</v>
+        <v>79659</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>86422</v>
+        <v>86436</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9665101432954343</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9081815071459263</v>
+        <v>0.9125210872732618</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.989995486547583</v>
+        <v>0.9901583096120381</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>88</v>
@@ -7871,19 +7871,19 @@
         <v>106085</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>97899</v>
+        <v>97959</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>111200</v>
+        <v>111345</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.920656555451608</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8496114920657879</v>
+        <v>0.8501290307489749</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9650461802077119</v>
+        <v>0.9662992316583254</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>175</v>
@@ -7892,19 +7892,19 @@
         <v>190457</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>181296</v>
+        <v>180212</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>196692</v>
+        <v>196046</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9404211404986351</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8951880735088352</v>
+        <v>0.8898337594644219</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9712088754356261</v>
+        <v>0.9680170461348538</v>
       </c>
     </row>
     <row r="13">
@@ -8009,19 +8009,19 @@
         <v>4477</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12063</v>
+        <v>11974</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05603825202687125</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01539825270651756</v>
+        <v>0.01544963995606581</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1509857184063206</v>
+        <v>0.1498721111504753</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -8030,19 +8030,19 @@
         <v>4477</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1232</v>
+        <v>1223</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>13389</v>
+        <v>11892</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03121300164974522</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008588642653284776</v>
+        <v>0.008524931331646078</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09334211302731155</v>
+        <v>0.08290147678397584</v>
       </c>
     </row>
     <row r="15">
@@ -8059,19 +8059,19 @@
         <v>2817</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7664</v>
+        <v>7442</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.04432976334618165</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01193840137830046</v>
+        <v>0.01214053169289466</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1206091761740011</v>
+        <v>0.1171083401860155</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -8093,19 +8093,19 @@
         <v>2817</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>8358</v>
+        <v>7827</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01963832622223829</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.005394572437705935</v>
+        <v>0.005377727789824136</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0582668263995546</v>
+        <v>0.05456241704232501</v>
       </c>
     </row>
     <row r="16">
@@ -8169,19 +8169,19 @@
         <v>60729</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>55882</v>
+        <v>56104</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>62787</v>
+        <v>62775</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9556702366538183</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8793908238259975</v>
+        <v>0.8828916598139845</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9880615986216996</v>
+        <v>0.9878594683071054</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>66</v>
@@ -8190,19 +8190,19 @@
         <v>75420</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>67834</v>
+        <v>67923</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>78667</v>
+        <v>78663</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9439617479731287</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8490142815936794</v>
+        <v>0.8501278888495246</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9846017472934825</v>
+        <v>0.9845503600439341</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>135</v>
@@ -8211,19 +8211,19 @@
         <v>136149</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>127604</v>
+        <v>128668</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>140226</v>
+        <v>140543</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9491486721280165</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8895803112484254</v>
+        <v>0.8969994290955694</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9775706485456221</v>
+        <v>0.9797831262689195</v>
       </c>
     </row>
     <row r="18">
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4027</v>
+        <v>4032</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01255976103389439</v>
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06223410686689025</v>
+        <v>0.06230772774793544</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -8352,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>3646</v>
+        <v>4119</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.005200505865878457</v>
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02332902937764826</v>
+        <v>0.02635625104179075</v>
       </c>
     </row>
     <row r="20">
@@ -8381,7 +8381,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4181</v>
+        <v>4165</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01278661573433639</v>
@@ -8390,7 +8390,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06461095038213524</v>
+        <v>0.06435776853455868</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -8415,7 +8415,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4544</v>
+        <v>5070</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.005294437525658208</v>
@@ -8424,7 +8424,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02907331976037065</v>
+        <v>0.03244059502797276</v>
       </c>
     </row>
     <row r="21">
@@ -8444,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6310</v>
+        <v>6459</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02787196710017445</v>
@@ -8453,7 +8453,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09751200177038251</v>
+        <v>0.09981322023794877</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -8478,7 +8478,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>5582</v>
+        <v>5567</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01154069157899294</v>
@@ -8487,7 +8487,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03571534095775077</v>
+        <v>0.03562126833829144</v>
       </c>
     </row>
     <row r="22">
@@ -8504,19 +8504,19 @@
         <v>61268</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>56661</v>
+        <v>56424</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>63860</v>
+        <v>63867</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9467816561315948</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8755900607385999</v>
+        <v>0.8719237156057744</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9868309940005121</v>
+        <v>0.9869480508372217</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>76</v>
@@ -8538,19 +8538,19 @@
         <v>152841</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>148341</v>
+        <v>148079</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>155358</v>
+        <v>155434</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9779643650294704</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9491676469979137</v>
+        <v>0.9474945282276459</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9940669996714626</v>
+        <v>0.994554787101021</v>
       </c>
     </row>
     <row r="23">
@@ -8692,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4491</v>
+        <v>4529</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01898938165383374</v>
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.106715118207106</v>
+        <v>0.107639292517428</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -8710,19 +8710,19 @@
         <v>5461</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2080</v>
+        <v>2109</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11587</v>
+        <v>11232</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1080664346346942</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04115783704837613</v>
+        <v>0.04173743359194743</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2293057782846364</v>
+        <v>0.2222845041023579</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6</v>
@@ -8731,19 +8731,19 @@
         <v>6260</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2304</v>
+        <v>2226</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>11999</v>
+        <v>12998</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06759268274625063</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02487389142251307</v>
+        <v>0.02403903475594652</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.12955676089408</v>
+        <v>0.1403463383028787</v>
       </c>
     </row>
     <row r="26">
@@ -8776,7 +8776,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7902</v>
+        <v>6999</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04587440217417536</v>
@@ -8785,7 +8785,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1563830318654013</v>
+        <v>0.1385001806114741</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2</v>
@@ -8797,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7219</v>
+        <v>6868</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02503054722505403</v>
@@ -8806,7 +8806,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07795307809271025</v>
+        <v>0.07416240627382932</v>
       </c>
     </row>
     <row r="27">
@@ -8823,7 +8823,7 @@
         <v>41281</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>37589</v>
+        <v>37551</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>42080</v>
@@ -8832,7 +8832,7 @@
         <v>0.9810106183461662</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.893284881792892</v>
+        <v>0.8923607074825712</v>
       </c>
       <c r="I27" s="6" t="n">
         <v>1</v>
@@ -8844,19 +8844,19 @@
         <v>42753</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>35498</v>
+        <v>37218</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>47249</v>
+        <v>47197</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8460591631911304</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.7024801657985715</v>
+        <v>0.7365328136735466</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9350348456260481</v>
+        <v>0.9339936922957653</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>85</v>
@@ -8865,19 +8865,19 @@
         <v>84034</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>77168</v>
+        <v>76793</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>88610</v>
+        <v>88336</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9073767700286953</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.833238952561658</v>
+        <v>0.8291912523227327</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9567917490513075</v>
+        <v>0.9538239967432073</v>
       </c>
     </row>
     <row r="28">
@@ -8982,19 +8982,19 @@
         <v>3713</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1205</v>
+        <v>1193</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10945</v>
+        <v>9501</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05509438046115021</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01788743249482204</v>
+        <v>0.01770608671774395</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1624249594351038</v>
+        <v>0.1409884391827068</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3</v>
@@ -9003,19 +9003,19 @@
         <v>3713</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1174</v>
+        <v>1206</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>9437</v>
+        <v>9981</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0320518583057937</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01013340056129901</v>
+        <v>0.01041549871285429</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08146874909221578</v>
+        <v>0.08616629691098583</v>
       </c>
     </row>
     <row r="30">
@@ -9032,19 +9032,19 @@
         <v>4902</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1686</v>
+        <v>1643</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9216</v>
+        <v>9198</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1011841556655919</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03479331635506196</v>
+        <v>0.03391411894165831</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1902248083081235</v>
+        <v>0.1898646720079125</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>4</v>
@@ -9053,19 +9053,19 @@
         <v>4847</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1275</v>
+        <v>1288</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>11290</v>
+        <v>11291</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.07192275858234168</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01892012786157126</v>
+        <v>0.01910985574474479</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.167535440255545</v>
+        <v>0.1675530201993171</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>10</v>
@@ -9074,19 +9074,19 @@
         <v>9749</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4671</v>
+        <v>4695</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>16620</v>
+        <v>17309</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.08416096481941754</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04032485120287969</v>
+        <v>0.04052996806489668</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1434815224791328</v>
+        <v>0.1494303927793073</v>
       </c>
     </row>
     <row r="31">
@@ -9106,7 +9106,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>4144</v>
+        <v>3878</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01582249802875224</v>
@@ -9115,7 +9115,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.08553845587840979</v>
+        <v>0.0800507494180276</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -9140,7 +9140,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4333</v>
+        <v>3949</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.006617558058170724</v>
@@ -9149,7 +9149,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03740514855338684</v>
+        <v>0.03409255784774701</v>
       </c>
     </row>
     <row r="32">
@@ -9166,19 +9166,19 @@
         <v>42777</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>38289</v>
+        <v>38529</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>46036</v>
+        <v>46063</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8829933463056558</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7903392927901242</v>
+        <v>0.7952990145972076</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9502439793933661</v>
+        <v>0.9508158450789416</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>52</v>
@@ -9187,19 +9187,19 @@
         <v>58829</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>51423</v>
+        <v>52197</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>63695</v>
+        <v>63781</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8729828609565081</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7630918187909902</v>
+        <v>0.774575692663659</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.945205172766019</v>
+        <v>0.9464804974612666</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>100</v>
@@ -9208,19 +9208,19 @@
         <v>101606</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>93840</v>
+        <v>92961</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>107813</v>
+        <v>107797</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.877169618816618</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8101250992861787</v>
+        <v>0.8025336904424936</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.930758142930059</v>
+        <v>0.9306201694125124</v>
       </c>
     </row>
     <row r="33">
@@ -9312,19 +9312,19 @@
         <v>3715</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>926</v>
+        <v>910</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>9289</v>
+        <v>9390</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03311129678011286</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.00825462620614131</v>
+        <v>0.008113439516955328</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.08280085680310523</v>
+        <v>0.0837013971924772</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2</v>
@@ -9336,7 +9336,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>8855</v>
+        <v>8509</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01722034019912203</v>
@@ -9345,7 +9345,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0599820971773079</v>
+        <v>0.05763921446000545</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>6</v>
@@ -9354,19 +9354,19 @@
         <v>6257</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2741</v>
+        <v>2244</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>13014</v>
+        <v>13762</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02408202096145718</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01054848051339286</v>
+        <v>0.008637867540877942</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.05008890992531374</v>
+        <v>0.05297121414392195</v>
       </c>
     </row>
     <row r="35">
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>4819</v>
+        <v>4432</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.007935842788833062</v>
@@ -9395,7 +9395,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04295468403048702</v>
+        <v>0.03950352356211288</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>8</v>
@@ -9404,19 +9404,19 @@
         <v>10369</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>4726</v>
+        <v>4211</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>19402</v>
+        <v>19088</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.07023573250983918</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03201401836431666</v>
+        <v>0.02852770132003822</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1314297944965152</v>
+        <v>0.1292983929230782</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>9</v>
@@ -9425,19 +9425,19 @@
         <v>11259</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>4895</v>
+        <v>5360</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>20073</v>
+        <v>20618</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04333477455834654</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01884135812381621</v>
+        <v>0.02063035334132709</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07726207328243734</v>
+        <v>0.07935990779246543</v>
       </c>
     </row>
     <row r="36">
@@ -9457,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4548</v>
+        <v>3905</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.008002648548713036</v>
@@ -9466,7 +9466,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04054278000125224</v>
+        <v>0.03481081977365298</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5078</v>
+        <v>4532</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.003455526375304573</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01954601109203149</v>
+        <v>0.0174426986784725</v>
       </c>
     </row>
     <row r="37">
@@ -9517,19 +9517,19 @@
         <v>106682</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>100320</v>
+        <v>100426</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>109542</v>
+        <v>110312</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9509502118823411</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.894234808291742</v>
+        <v>0.8951803986602616</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9764403428636919</v>
+        <v>0.9833040179634498</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>115</v>
@@ -9538,19 +9538,19 @@
         <v>134714</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>125375</v>
+        <v>125076</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>140920</v>
+        <v>141145</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9125439272910388</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.8492831743046846</v>
+        <v>0.8472534090455672</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.954579719906834</v>
+        <v>0.9561083560858116</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>218</v>
@@ -9559,19 +9559,19 @@
         <v>241397</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>230830</v>
+        <v>230294</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>248934</v>
+        <v>248732</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9291276781048917</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.8884568563692581</v>
+        <v>0.8863933767224021</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9581379028479159</v>
+        <v>0.957360006259948</v>
       </c>
     </row>
     <row r="38">
@@ -9710,19 +9710,19 @@
         <v>3248</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>8749</v>
+        <v>10274</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.02421034495595386</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.006067673544589947</v>
+        <v>0.006003715359177267</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.06520956293194577</v>
+        <v>0.07657847505026019</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>9</v>
@@ -9731,19 +9731,19 @@
         <v>12152</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>6318</v>
+        <v>5800</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>21507</v>
+        <v>22110</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.068927089560309</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.03583596493110681</v>
+        <v>0.03290003105134552</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1219941785105635</v>
+        <v>0.1254124001966294</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>12</v>
@@ -9752,19 +9752,19 @@
         <v>15400</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>8927</v>
+        <v>8748</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>26809</v>
+        <v>26297</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.04960262890288571</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.02875337550881153</v>
+        <v>0.02817630894545458</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.08635070966726206</v>
+        <v>0.08470264166839218</v>
       </c>
     </row>
     <row r="41">
@@ -9828,19 +9828,19 @@
         <v>130920</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>125419</v>
+        <v>123894</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>133354</v>
+        <v>133362</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9757896550440461</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9347904370680542</v>
+        <v>0.9234215249497413</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9939323264554101</v>
+        <v>0.9939962846408228</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>133</v>
@@ -9849,19 +9849,19 @@
         <v>164145</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>154790</v>
+        <v>154187</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>169979</v>
+        <v>170497</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.931072910439691</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.8780058214894372</v>
+        <v>0.8745875998033708</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9641640350688931</v>
+        <v>0.9670999689486547</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>271</v>
@@ -9870,19 +9870,19 @@
         <v>295065</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>283656</v>
+        <v>284168</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>301538</v>
+        <v>301717</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9503973710971143</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9136492903327386</v>
+        <v>0.9152973583316077</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9712466244911887</v>
+        <v>0.9718236910545455</v>
       </c>
     </row>
     <row r="43">
@@ -9974,19 +9974,19 @@
         <v>5329</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1886</v>
+        <v>2400</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>11093</v>
+        <v>12106</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.009011741481572967</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.003189849336388622</v>
+        <v>0.004058889634707674</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01875935019127651</v>
+        <v>0.02047327814285446</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>10</v>
@@ -9995,19 +9995,19 @@
         <v>13205</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>6494</v>
+        <v>6283</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>23217</v>
+        <v>23557</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01697464017700514</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.008347862868453846</v>
+        <v>0.008075929731731938</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.02984400047757547</v>
+        <v>0.03028199437835554</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>16</v>
@@ -10016,19 +10016,19 @@
         <v>18534</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>10379</v>
+        <v>10665</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>29989</v>
+        <v>28139</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01353578386668478</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.007580147705295194</v>
+        <v>0.007788916777413356</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.02190181781948972</v>
+        <v>0.02055039322728758</v>
       </c>
     </row>
     <row r="45">
@@ -10045,19 +10045,19 @@
         <v>17199</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>10855</v>
+        <v>10594</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>26672</v>
+        <v>26297</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.0290853636997633</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.01835663726456941</v>
+        <v>0.01791617241649703</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.04510468710169677</v>
+        <v>0.04447122612625189</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>35</v>
@@ -10066,19 +10066,19 @@
         <v>44077</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>31805</v>
+        <v>30123</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>59324</v>
+        <v>61120</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.05665967139987355</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.04088385760606095</v>
+        <v>0.03872254453872001</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.07625811623707869</v>
+        <v>0.07856729553998047</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>54</v>
@@ -10087,19 +10087,19 @@
         <v>61276</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>46968</v>
+        <v>47758</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>79620</v>
+        <v>80679</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.04475143475589435</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.03430181431000624</v>
+        <v>0.0348786200638341</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.05814816439135281</v>
+        <v>0.05892153208429553</v>
       </c>
     </row>
     <row r="46">
@@ -10116,19 +10116,19 @@
         <v>3468</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>8576</v>
+        <v>8659</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.005864689013602552</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.001514859012029556</v>
+        <v>0.00150034418766862</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01450352042141532</v>
+        <v>0.01464330031409564</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>2</v>
@@ -10140,7 +10140,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>8162</v>
+        <v>7309</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.002979870364770302</v>
@@ -10149,7 +10149,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01049159207108636</v>
+        <v>0.009395394916915552</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>6</v>
@@ -10158,19 +10158,19 @@
         <v>5786</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>2075</v>
+        <v>2090</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>12768</v>
+        <v>12418</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.004225707740593935</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.00151535121786847</v>
+        <v>0.001526669421201685</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.00932507835109966</v>
+        <v>0.009069120688742603</v>
       </c>
     </row>
     <row r="47">
@@ -10187,19 +10187,19 @@
         <v>565332</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>555207</v>
+        <v>554171</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>573782</v>
+        <v>573445</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.9560382058050612</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.9389146156192755</v>
+        <v>0.9371639127324761</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.9703284566741086</v>
+        <v>0.9697585723451344</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>608</v>
@@ -10208,19 +10208,19 @@
         <v>718330</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>701566</v>
+        <v>699178</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>732738</v>
+        <v>734111</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.923385818058351</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.9018353908133331</v>
+        <v>0.8987665686659121</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.9419066326210671</v>
+        <v>0.943670545725058</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1206</v>
@@ -10229,19 +10229,19 @@
         <v>1283663</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1265194</v>
+        <v>1263226</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1301353</v>
+        <v>1300276</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.9374870736368269</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.9239991784853455</v>
+        <v>0.9225615863682561</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.9504065447511093</v>
+        <v>0.949620273458838</v>
       </c>
     </row>
     <row r="48">
@@ -10593,7 +10593,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4145</v>
+        <v>3174</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009790880812249112</v>
@@ -10602,7 +10602,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06350680670477983</v>
+        <v>0.04862457451576245</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -10614,7 +10614,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>3996</v>
+        <v>3267</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005063034742842794</v>
@@ -10623,7 +10623,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03165582923537669</v>
+        <v>0.02587858641044525</v>
       </c>
     </row>
     <row r="5">
@@ -10656,7 +10656,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3853</v>
+        <v>4065</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01766175470426054</v>
@@ -10665,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05902957454298242</v>
+        <v>0.06226837562016817</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>3635</v>
+        <v>3989</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.009133200516072536</v>
+        <v>0.009133200516072538</v>
       </c>
       <c r="V5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02880018411628302</v>
+        <v>0.03159860672591082</v>
       </c>
     </row>
     <row r="6">
@@ -10719,16 +10719,16 @@
         <v>472</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5209</v>
+        <v>5589</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02985542321862878</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007227689141685791</v>
+        <v>0.007229120339131511</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07979198717380856</v>
+        <v>0.08561810761002191</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -10737,19 +10737,19 @@
         <v>1949</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5822</v>
+        <v>5854</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01543875856695976</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.003752798273216158</v>
+        <v>0.003731749377641458</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04612045357553105</v>
+        <v>0.0463747291498761</v>
       </c>
     </row>
     <row r="7">
@@ -10779,19 +10779,19 @@
         <v>61535</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>57658</v>
+        <v>57784</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>63679</v>
+        <v>63789</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9426919412648616</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8832987188274897</v>
+        <v>0.8852184301491318</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9755363782411831</v>
+        <v>0.9772197179954967</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>209</v>
@@ -10800,19 +10800,19 @@
         <v>122490</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>118371</v>
+        <v>118162</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>124648</v>
+        <v>124787</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9703650061741248</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9377302134933443</v>
+        <v>0.9360794226221788</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.987462137338993</v>
+        <v>0.988558540267797</v>
       </c>
     </row>
     <row r="8">
@@ -10907,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4550</v>
+        <v>4562</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01037287233421965</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05148402433977434</v>
+        <v>0.05161911701103278</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -10925,19 +10925,19 @@
         <v>4989</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2099</v>
+        <v>2289</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9948</v>
+        <v>9624</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03686695840072839</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01551308915291548</v>
+        <v>0.01691602274294038</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07351274652332719</v>
+        <v>0.07111617433253771</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>8</v>
@@ -10946,19 +10946,19 @@
         <v>5906</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2686</v>
+        <v>2643</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>11399</v>
+        <v>11568</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0264004555004159</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01200514096590029</v>
+        <v>0.01181429409455004</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05095826947452808</v>
+        <v>0.05171167643737101</v>
       </c>
     </row>
     <row r="10">
@@ -10975,19 +10975,19 @@
         <v>3862</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>946</v>
+        <v>984</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9661</v>
+        <v>8720</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04369865937903403</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01070549093421056</v>
+        <v>0.01112969811815041</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1093250654293706</v>
+        <v>0.09867597014248841</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -10996,19 +10996,19 @@
         <v>9988</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5632</v>
+        <v>6072</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16362</v>
+        <v>16116</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07380270339757058</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04162012650176909</v>
+        <v>0.04486579908591624</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1209051094351735</v>
+        <v>0.1190893300685866</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -11017,19 +11017,19 @@
         <v>13849</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8261</v>
+        <v>8792</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20394</v>
+        <v>21415</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06191008467352083</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03692715210854138</v>
+        <v>0.03930092814402604</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09116856378050762</v>
+        <v>0.09572880906293808</v>
       </c>
     </row>
     <row r="11">
@@ -11059,19 +11059,19 @@
         <v>1833</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5377</v>
+        <v>4884</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0135449307515089</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.004262669443776059</v>
+        <v>0.004277004514953837</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03973308511951881</v>
+        <v>0.03609374856949154</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -11080,19 +11080,19 @@
         <v>1833</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>4995</v>
+        <v>4913</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.008193998598600667</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002586175133035355</v>
+        <v>0.002604946486411207</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02232932064594734</v>
+        <v>0.02196314237696964</v>
       </c>
     </row>
     <row r="12">
@@ -11109,19 +11109,19 @@
         <v>83595</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>77871</v>
+        <v>78450</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>86515</v>
+        <v>86504</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9459284682867466</v>
+        <v>0.9459284682867464</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8811575720851597</v>
+        <v>0.8877159114198679</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.978974429475485</v>
+        <v>0.9788488918537522</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>198</v>
@@ -11130,19 +11130,19 @@
         <v>118518</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>110888</v>
+        <v>111651</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>124463</v>
+        <v>123680</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8757854074501923</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8194046007116603</v>
+        <v>0.8250419373407435</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9197125965370735</v>
+        <v>0.9139264167948505</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>288</v>
@@ -11151,19 +11151,19 @@
         <v>202113</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>195094</v>
+        <v>193600</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>209664</v>
+        <v>208608</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.9034954612274624</v>
+        <v>0.9034954612274626</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8721200299429729</v>
+        <v>0.8654407643045139</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9372503530183427</v>
+        <v>0.932530607070192</v>
       </c>
     </row>
     <row r="13">
@@ -11255,19 +11255,19 @@
         <v>1866</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4998</v>
+        <v>4988</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02581997632530354</v>
+        <v>0.02581997632530353</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.008367769929519339</v>
+        <v>0.008380834076064384</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06914866287531114</v>
+        <v>0.06900855874420952</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -11276,19 +11276,19 @@
         <v>2130</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4874</v>
+        <v>4850</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.024812170302704</v>
+        <v>0.02481217030270399</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006151724437660717</v>
+        <v>0.006162214597532352</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05677520858805148</v>
+        <v>0.05648858588978568</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -11297,19 +11297,19 @@
         <v>3997</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1674</v>
+        <v>1697</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8036</v>
+        <v>7962</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.02527284776238896</v>
+        <v>0.02527284776238897</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01058551752043053</v>
+        <v>0.0107321393634293</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05081784373056339</v>
+        <v>0.05034763120400229</v>
       </c>
     </row>
     <row r="15">
@@ -11326,19 +11326,19 @@
         <v>2301</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5228</v>
+        <v>5651</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.03182702902450546</v>
+        <v>0.03182702902450545</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.00842970936358186</v>
+        <v>0.008499134454845228</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07232625693898899</v>
+        <v>0.07818188356608291</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>13</v>
@@ -11347,19 +11347,19 @@
         <v>6598</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3801</v>
+        <v>3718</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>11191</v>
+        <v>10828</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.07685972481073448</v>
+        <v>0.0768597248107345</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04427384567821939</v>
+        <v>0.04331354853911384</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1303527383974079</v>
+        <v>0.126121173660117</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>17</v>
@@ -11368,19 +11368,19 @@
         <v>8899</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>4942</v>
+        <v>5532</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>14074</v>
+        <v>13725</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.05627486281114573</v>
+        <v>0.05627486281114574</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03125381315218165</v>
+        <v>0.03498365146581685</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.08899945113810681</v>
+        <v>0.08679602730176536</v>
       </c>
     </row>
     <row r="16">
@@ -11400,7 +11400,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3770</v>
+        <v>3824</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01734824422698964</v>
@@ -11409,7 +11409,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05214972723331144</v>
+        <v>0.05290627926200334</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2897</v>
+        <v>3131</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006677394222465653</v>
@@ -11430,7 +11430,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03373974475983159</v>
+        <v>0.03647091779042181</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -11439,19 +11439,19 @@
         <v>1827</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5235</v>
+        <v>4909</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01155513851306192</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003647329077807898</v>
+        <v>0.003639757078216177</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03310165376542242</v>
+        <v>0.03104233896836546</v>
       </c>
     </row>
     <row r="17">
@@ -11468,19 +11468,19 @@
         <v>66864</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>62502</v>
+        <v>62577</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>69781</v>
+        <v>69759</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9250047504232014</v>
+        <v>0.9250047504232013</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.864658846376088</v>
+        <v>0.8656964680144872</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9653632022745869</v>
+        <v>0.9650597659787774</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>151</v>
@@ -11489,19 +11489,19 @@
         <v>76548</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>71897</v>
+        <v>72038</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>80018</v>
+        <v>80289</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8916507106640958</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8374745282592647</v>
+        <v>0.8391145223420436</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9320731672937773</v>
+        <v>0.9352284804874292</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>264</v>
@@ -11510,19 +11510,19 @@
         <v>143412</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>136992</v>
+        <v>137487</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>148249</v>
+        <v>148207</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9068971509134032</v>
+        <v>0.9068971509134035</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8662950926968785</v>
+        <v>0.869425402193745</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9374854590204811</v>
+        <v>0.9372200382415724</v>
       </c>
     </row>
     <row r="18">
@@ -11627,19 +11627,19 @@
         <v>1327</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>3572</v>
+        <v>3562</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01200529416315529</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003758243155405468</v>
+        <v>0.003749176148230709</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03232122077326659</v>
+        <v>0.03223528753251516</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -11648,19 +11648,19 @@
         <v>1327</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>3513</v>
+        <v>3876</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.006850305303482923</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002117374130002631</v>
+        <v>0.002144249964104833</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01814135489108457</v>
+        <v>0.02001666401830697</v>
       </c>
     </row>
     <row r="20">
@@ -11690,19 +11690,19 @@
         <v>2871</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1226</v>
+        <v>1198</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5867</v>
+        <v>5626</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.02597875807539891</v>
+        <v>0.0259787580753989</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01109750228184156</v>
+        <v>0.01083774847848698</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05309587534696661</v>
+        <v>0.05091029322844131</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -11711,19 +11711,19 @@
         <v>2871</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5912</v>
+        <v>5483</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01482366211133572</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.006262886175826553</v>
+        <v>0.006228344911051729</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03052612232674618</v>
+        <v>0.02831490529953394</v>
       </c>
     </row>
     <row r="21">
@@ -11756,7 +11756,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1996</v>
+        <v>2694</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.004090677904027665</v>
@@ -11765,7 +11765,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01806458994673462</v>
+        <v>0.02437877718115511</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1</v>
@@ -11777,7 +11777,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2286</v>
+        <v>2250</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.002334169588847138</v>
@@ -11786,7 +11786,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01180474673475465</v>
+        <v>0.01161802756104332</v>
       </c>
     </row>
     <row r="22">
@@ -11816,19 +11816,19 @@
         <v>105855</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>102590</v>
+        <v>102756</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>108011</v>
+        <v>108286</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9579252698574182</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9283791645588091</v>
+        <v>0.9298834846303028</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9774389408362545</v>
+        <v>0.9799266190017355</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>363</v>
@@ -11837,19 +11837,19 @@
         <v>189011</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>185737</v>
+        <v>185740</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>191310</v>
+        <v>191203</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9759918629963341</v>
+        <v>0.9759918629963342</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9590869342583732</v>
+        <v>0.9591014725968404</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9878658482745535</v>
+        <v>0.9873136371121418</v>
       </c>
     </row>
     <row r="23">
@@ -11957,7 +11957,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>3104</v>
+        <v>2755</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01442472941008086</v>
@@ -11966,7 +11966,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05043518777932211</v>
+        <v>0.04476527668091106</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2</v>
@@ -11978,7 +11978,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>3086</v>
+        <v>3038</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.009054274298194821</v>
@@ -11987,7 +11987,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03147692632420233</v>
+        <v>0.03098567713721491</v>
       </c>
     </row>
     <row r="25">
@@ -12004,19 +12004,19 @@
         <v>1507</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3866</v>
+        <v>4270</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.04128653441404356</v>
+        <v>0.04128653441404354</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01340411042140426</v>
+        <v>0.01350965614774273</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1059088518959663</v>
+        <v>0.1169787076770678</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -12025,19 +12025,19 @@
         <v>5029</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2553</v>
+        <v>2714</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8234</v>
+        <v>8414</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08171181129229488</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04147623737654602</v>
+        <v>0.04410396758425466</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1337975397969552</v>
+        <v>0.1367185165579086</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>15</v>
@@ -12046,19 +12046,19 @@
         <v>6536</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3615</v>
+        <v>4124</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10111</v>
+        <v>10700</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.06666112100284727</v>
+        <v>0.06666112100284725</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03686818385792752</v>
+        <v>0.04206380205331092</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.103127499652741</v>
+        <v>0.1091360559973354</v>
       </c>
     </row>
     <row r="26">
@@ -12122,19 +12122,19 @@
         <v>34996</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>32637</v>
+        <v>32233</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>36014</v>
+        <v>36010</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9587134655859565</v>
+        <v>0.9587134655859564</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8940911481040313</v>
+        <v>0.8830212923229316</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9865958895785956</v>
+        <v>0.9864903438522573</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>151</v>
@@ -12143,19 +12143,19 @@
         <v>55626</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>52005</v>
+        <v>51811</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>58405</v>
+        <v>58161</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9038634592976242</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8450321954274721</v>
+        <v>0.8418883564463039</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9490204051833376</v>
+        <v>0.9450579779292405</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>219</v>
@@ -12164,19 +12164,19 @@
         <v>90621</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>86820</v>
+        <v>85958</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>93699</v>
+        <v>93099</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.924284604698958</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8855092726328017</v>
+        <v>0.8767207379999319</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.955670138447456</v>
+        <v>0.9495511030907187</v>
       </c>
     </row>
     <row r="28">
@@ -12268,19 +12268,19 @@
         <v>1504</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4002</v>
+        <v>3795</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02498060767940158</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.00787114978297683</v>
+        <v>0.007845291944073844</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06644604998559582</v>
+        <v>0.06301280610136339</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>9</v>
@@ -12289,19 +12289,19 @@
         <v>3641</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1733</v>
+        <v>1856</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6593</v>
+        <v>7369</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05409880587774825</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0257514368887328</v>
+        <v>0.02757494994819162</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09795220919565407</v>
+        <v>0.1094753081259523</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>13</v>
@@ -12310,19 +12310,19 @@
         <v>5146</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8535</v>
+        <v>8560</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04034852454888865</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02290776516357054</v>
+        <v>0.02289487568536736</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06692638363155599</v>
+        <v>0.06712030680331831</v>
       </c>
     </row>
     <row r="30">
@@ -12342,7 +12342,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2230</v>
+        <v>2066</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.006746804816792782</v>
@@ -12351,7 +12351,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03702019809040886</v>
+        <v>0.03430098391211505</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>13</v>
@@ -12360,19 +12360,19 @@
         <v>4294</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2355</v>
+        <v>2305</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7020</v>
+        <v>6913</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.06379488791306472</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03498507750133711</v>
+        <v>0.03424431396921049</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1042922536342454</v>
+        <v>0.1027085227146305</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>14</v>
@@ -12381,19 +12381,19 @@
         <v>4700</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2707</v>
+        <v>2719</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>7557</v>
+        <v>7696</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03685547406257316</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02122910409262432</v>
+        <v>0.02131691359398624</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05925556889359988</v>
+        <v>0.0603471709200349</v>
       </c>
     </row>
     <row r="31">
@@ -12457,19 +12457,19 @@
         <v>58313</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>55775</v>
+        <v>55282</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>59483</v>
+        <v>59527</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9682725875038056</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9261229668666693</v>
+        <v>0.9179437458268049</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9876990359767498</v>
+        <v>0.9884266914248588</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>155</v>
@@ -12478,19 +12478,19 @@
         <v>59374</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>55790</v>
+        <v>55706</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>62261</v>
+        <v>62082</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8821063062091871</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8288649859390511</v>
+        <v>0.8276209228270225</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9249979814180896</v>
+        <v>0.9223357955394433</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>285</v>
@@ -12499,19 +12499,19 @@
         <v>117686</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>113706</v>
+        <v>113481</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>120785</v>
+        <v>120948</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9227960013885381</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8915917390544</v>
+        <v>0.889825468229593</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9470977496249854</v>
+        <v>0.948371522199751</v>
       </c>
     </row>
     <row r="33">
@@ -12606,16 +12606,16 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>5014</v>
+        <v>5041</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.00663584201526089</v>
+        <v>0.006635842015260891</v>
       </c>
       <c r="H34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03312924696789228</v>
+        <v>0.03330724123593067</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>4</v>
@@ -12624,19 +12624,19 @@
         <v>2683</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>6700</v>
+        <v>6115</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01628591324471788</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.004124547097395203</v>
+        <v>0.004072399215117869</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04066011361562203</v>
+        <v>0.03711500466541223</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>5</v>
@@ -12645,19 +12645,19 @@
         <v>3688</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>8699</v>
+        <v>8110</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01166583831961</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.004232677238742678</v>
+        <v>0.004248442112054262</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02752010830941517</v>
+        <v>0.02565710848936664</v>
       </c>
     </row>
     <row r="35">
@@ -12677,7 +12677,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>6900</v>
+        <v>6112</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01317352496453824</v>
@@ -12686,7 +12686,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04559523156329873</v>
+        <v>0.04038788321726081</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>10</v>
@@ -12695,19 +12695,19 @@
         <v>6666</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>3298</v>
+        <v>3223</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>11961</v>
+        <v>11927</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04045704040801115</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02001383967704636</v>
+        <v>0.01956084385933482</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07259468228949904</v>
+        <v>0.07238889723314228</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>12</v>
@@ -12716,19 +12716,19 @@
         <v>8660</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>4987</v>
+        <v>4553</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>14318</v>
+        <v>15015</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.02739476526289018</v>
+        <v>0.02739476526289019</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01577599384548548</v>
+        <v>0.01440232385614372</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04529480769355804</v>
+        <v>0.04749815173892673</v>
       </c>
     </row>
     <row r="36">
@@ -12748,16 +12748,16 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4364</v>
+        <v>4420</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.005782770461845842</v>
+        <v>0.005782770461845843</v>
       </c>
       <c r="H36" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.0288366281498318</v>
+        <v>0.02920844375213309</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>8</v>
@@ -12766,19 +12766,19 @@
         <v>5289</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2607</v>
+        <v>2611</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>9852</v>
+        <v>10035</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.03209995653728687</v>
+        <v>0.03209995653728688</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01581947133711232</v>
+        <v>0.0158465633866709</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05979037993636929</v>
+        <v>0.06090176370874749</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>9</v>
@@ -12787,19 +12787,19 @@
         <v>6164</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2859</v>
+        <v>2900</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>11505</v>
+        <v>11933</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01950032192366908</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.009044457554324894</v>
+        <v>0.00917377437691751</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03639561523922943</v>
+        <v>0.03774904951911946</v>
       </c>
     </row>
     <row r="37">
@@ -12816,19 +12816,19 @@
         <v>147468</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>142425</v>
+        <v>142072</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>150346</v>
+        <v>150344</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.9744078625583549</v>
+        <v>0.9744078625583551</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9410838873498362</v>
+        <v>0.9387548759991777</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9934225149403849</v>
+        <v>0.9934130090392651</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>220</v>
@@ -12837,19 +12837,19 @@
         <v>150130</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>142948</v>
+        <v>142671</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>154929</v>
+        <v>154989</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.9111570898099841</v>
+        <v>0.911157089809984</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.8675634272229047</v>
+        <v>0.8658861640377969</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9402807710318747</v>
+        <v>0.9406412565063218</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>384</v>
@@ -12858,19 +12858,19 @@
         <v>297599</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>289839</v>
+        <v>289997</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>303299</v>
+        <v>303646</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.9414390744938308</v>
+        <v>0.941439074493831</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9168908634594047</v>
+        <v>0.9173898844382669</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9594696780706962</v>
+        <v>0.960566628820507</v>
       </c>
     </row>
     <row r="38">
@@ -13009,19 +13009,19 @@
         <v>2035</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>5440</v>
+        <v>5405</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01244168738481176</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.004010971399545167</v>
+        <v>0.004025232537174822</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03326013506941081</v>
+        <v>0.03304622511054786</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>17</v>
@@ -13030,19 +13030,19 @@
         <v>12541</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>7463</v>
+        <v>7256</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>20601</v>
+        <v>20548</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.05894106230532301</v>
+        <v>0.05894106230532297</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.03507480052908131</v>
+        <v>0.03410369361515263</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.09682310164905902</v>
+        <v>0.09657632160122667</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>20</v>
@@ -13051,19 +13051,19 @@
         <v>14576</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>8943</v>
+        <v>9081</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>22123</v>
+        <v>22288</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.03873176088835348</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.02376555030701838</v>
+        <v>0.02413055734521987</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.05878690499286771</v>
+        <v>0.05922649050265002</v>
       </c>
     </row>
     <row r="41">
@@ -13083,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>4482</v>
+        <v>4724</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.008249246731302192</v>
@@ -13092,7 +13092,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02740649765268047</v>
+        <v>0.0288820702264161</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1</v>
@@ -13104,16 +13104,16 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>2660</v>
+        <v>3004</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.002801984514252992</v>
+        <v>0.002801984514252991</v>
       </c>
       <c r="O41" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01250359074669088</v>
+        <v>0.01411731872203879</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>3</v>
@@ -13122,19 +13122,19 @@
         <v>1945</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>5250</v>
+        <v>5834</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.005169443522676294</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.001585690626231073</v>
+        <v>0.0015744456247039</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01394984482576052</v>
+        <v>0.01550364939475105</v>
       </c>
     </row>
     <row r="42">
@@ -13151,19 +13151,19 @@
         <v>160170</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>156081</v>
+        <v>156119</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>162216</v>
+        <v>162218</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.979309065883886</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9543109207187284</v>
+        <v>0.9545417193654747</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9918210189355688</v>
+        <v>0.9918298325344094</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>325</v>
@@ -13172,19 +13172,19 @@
         <v>199629</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>191937</v>
+        <v>191244</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>205088</v>
+        <v>204993</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.938256953180424</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.9021043653386409</v>
+        <v>0.898846597961815</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9639124932408137</v>
+        <v>0.9634675932328494</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>555</v>
@@ -13193,19 +13193,19 @@
         <v>359800</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>351954</v>
+        <v>351803</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>365703</v>
+        <v>365914</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9560987955889703</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9352493947028843</v>
+        <v>0.9348488518983015</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9717844621494176</v>
+        <v>0.9723444939748838</v>
       </c>
     </row>
     <row r="43">
@@ -13297,19 +13297,19 @@
         <v>5292</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>2324</v>
+        <v>2340</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>10022</v>
+        <v>10944</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.007386713557840392</v>
+        <v>0.00738671355784039</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.003244640157112949</v>
+        <v>0.003267014381431353</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01398950816305199</v>
+        <v>0.01527716936652424</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>30</v>
@@ -13318,19 +13318,19 @@
         <v>16297</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>10684</v>
+        <v>10793</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>22494</v>
+        <v>23612</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01804124192917782</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.0118267780722957</v>
+        <v>0.01194794379313272</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.02490096334223887</v>
+        <v>0.02613842175920388</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>39</v>
@@ -13339,19 +13339,19 @@
         <v>21589</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>15189</v>
+        <v>14857</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>29869</v>
+        <v>30375</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.01332885854169184</v>
+        <v>0.01332885854169185</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.00937733720013661</v>
+        <v>0.009172180756576432</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01844075629462606</v>
+        <v>0.01875306420463484</v>
       </c>
     </row>
     <row r="45">
@@ -13368,19 +13368,19 @@
         <v>12104</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>7202</v>
+        <v>7524</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>19695</v>
+        <v>19688</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.01689634272618754</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.01005339609590065</v>
+        <v>0.01050305722262292</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.027492602547431</v>
+        <v>0.02748266596701017</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>89</v>
@@ -13389,19 +13389,19 @@
         <v>49139</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>39879</v>
+        <v>38563</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>60470</v>
+        <v>60250</v>
       </c>
       <c r="N45" s="6" t="n">
-        <v>0.05439678491724472</v>
+        <v>0.05439678491724471</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.04414595124051066</v>
+        <v>0.04268878410624807</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.0669406911937048</v>
+        <v>0.0666968764292957</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>106</v>
@@ -13410,19 +13410,19 @@
         <v>61243</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>49329</v>
+        <v>49324</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>74558</v>
+        <v>73477</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.03781074237781945</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.03045511068628313</v>
+        <v>0.03045218494611144</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.04603087627686306</v>
+        <v>0.04536367998617864</v>
       </c>
     </row>
     <row r="46">
@@ -13439,19 +13439,19 @@
         <v>3478</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>1254</v>
+        <v>1310</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>7946</v>
+        <v>8257</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.004855432651337588</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.001749927260717664</v>
+        <v>0.001828960446099082</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01109183634230637</v>
+        <v>0.01152561922607867</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>17</v>
@@ -13460,19 +13460,19 @@
         <v>10692</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>6457</v>
+        <v>6678</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>17038</v>
+        <v>17257</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01183647121702425</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.00714781556290018</v>
+        <v>0.007392675727726995</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01886069407738358</v>
+        <v>0.01910341148720314</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>22</v>
@@ -13481,19 +13481,19 @@
         <v>14171</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>9161</v>
+        <v>8738</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>21450</v>
+        <v>21331</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.008748832889189826</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.005655755731711795</v>
+        <v>0.005394454490628827</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01324270388333492</v>
+        <v>0.01316947340483684</v>
       </c>
     </row>
     <row r="47">
@@ -13510,19 +13510,19 @@
         <v>695516</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>686526</v>
+        <v>686197</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>701989</v>
+        <v>701777</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.9708615110646345</v>
+        <v>0.9708615110646346</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.9583112362038451</v>
+        <v>0.9578530840647871</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.9798962032269497</v>
+        <v>0.9796002168748479</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1571</v>
@@ -13531,19 +13531,19 @@
         <v>827214</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>812348</v>
+        <v>813347</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>838935</v>
+        <v>838792</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.9157255019365532</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.8992681629145597</v>
+        <v>0.9003749381935713</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.9287009339118339</v>
+        <v>0.9285421240634638</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>2567</v>
@@ -13552,19 +13552,19 @@
         <v>1522732</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1507367</v>
+        <v>1507050</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1536402</v>
+        <v>1536712</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.9401115661912988</v>
+        <v>0.9401115661912989</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.930625697449895</v>
+        <v>0.9304302178666016</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.9485516511581474</v>
+        <v>0.9487425573154309</v>
       </c>
     </row>
     <row r="48">
